--- a/Test_task_for_Tenzor/staff_efficiency/project_five.xlsx
+++ b/Test_task_for_Tenzor/staff_efficiency/project_five.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G9" sqref="G9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -597,9 +597,7 @@
       <c r="C4" s="9">
         <v>41562</v>
       </c>
-      <c r="D4" s="10">
-        <v>41563</v>
-      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="11">
         <v>1</v>
       </c>

--- a/Test_task_for_Tenzor/staff_efficiency/project_five.xlsx
+++ b/Test_task_for_Tenzor/staff_efficiency/project_five.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Название проекта</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Проект2</t>
+  </si>
+  <si>
+    <t>Васильев Р.А.</t>
   </si>
 </sst>
 </file>
@@ -174,14 +177,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -587,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22.5">
+    <row r="4" spans="1:10" ht="23.25" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -597,23 +600,55 @@
       <c r="C4" s="9">
         <v>41562</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11">
+      <c r="D4" s="6">
+        <v>41547</v>
+      </c>
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>10</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>9</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>0</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="23.25" thickBot="1">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>41548</v>
+      </c>
+      <c r="D5" s="6">
+        <v>41547</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Test_task_for_Tenzor/staff_efficiency/project_five.xlsx
+++ b/Test_task_for_Tenzor/staff_efficiency/project_five.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Название проекта</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Васильев Р.А.</t>
+  </si>
+  <si>
+    <t>Горбунов С.В.</t>
   </si>
 </sst>
 </file>
@@ -148,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -182,6 +185,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -492,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -504,17 +513,17 @@
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" ht="22.5">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -535,12 +544,18 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
@@ -559,8 +574,14 @@
       <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="K2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="23.25" thickBot="1">
+    <row r="3" spans="1:12" ht="23.25" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -589,8 +610,14 @@
       <c r="J3" s="8">
         <v>2</v>
       </c>
+      <c r="K3" s="7">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="23.25" thickBot="1">
+    <row r="4" spans="1:12" ht="23.25" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -619,8 +646,12 @@
         <v>0</v>
       </c>
       <c r="J4" s="11"/>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="23.25" thickBot="1">
+    <row r="5" spans="1:12" ht="23.25" thickBot="1">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -647,6 +678,12 @@
         <v>2</v>
       </c>
       <c r="J5" s="8">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="8">
         <v>2</v>
       </c>
     </row>

--- a/Test_task_for_Tenzor/staff_efficiency/project_five.xlsx
+++ b/Test_task_for_Tenzor/staff_efficiency/project_five.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Название проекта</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Горбунов С.В.</t>
+  </si>
+  <si>
+    <t>Горбунов В.Н</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,54 +98,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -151,18 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -174,37 +133,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -501,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,16 +443,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -541,151 +470,219 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="3" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23.25" thickBot="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:12" ht="22.5">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>41548</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>41547</v>
       </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
         <v>3</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2</v>
-      </c>
-      <c r="J3" s="8">
-        <v>2</v>
-      </c>
-      <c r="K3" s="7">
-        <v>2</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="23.25" thickBot="1">
+    <row r="4" spans="1:12" ht="22.5">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="3">
         <v>41562</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>41547</v>
       </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
         <v>10</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="5">
         <v>9</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="10">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
         <v>0</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="23.25" thickBot="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:12" ht="22.5">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>41548</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>41547</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
         <v>3</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2</v>
-      </c>
-      <c r="J5" s="8">
-        <v>2</v>
-      </c>
-      <c r="K5" s="7">
-        <v>2</v>
-      </c>
-      <c r="L5" s="8">
-        <v>2</v>
-      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>41562</v>
+      </c>
+      <c r="D6" s="4">
+        <v>41547</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="22.5">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>41562</v>
+      </c>
+      <c r="D7" s="4">
+        <v>41547</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
